--- a/ClanCompetitionStatistics/2025/5月/2025年5月联赛统计结果.xlsx
+++ b/ClanCompetitionStatistics/2025/5月/2025年5月联赛统计结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\ClanWarStatistics\ClanCompetitionStatistics\2025\5月\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703364B9-8DA2-4B7A-9B81-74010AD7E7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5537CEC-DB01-4EE6-B051-BF90CAE661A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
     <col min="14" max="14" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,13 +602,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>0.83329999999999993</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -646,13 +646,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>0.83329999999999993</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -690,25 +690,25 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>0.66670000000000007</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -734,25 +734,25 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>0.66670000000000007</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -778,25 +778,25 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0.66670000000000007</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -822,13 +822,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -837,10 +837,10 @@
         <v>0.16669999999999999</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
-        <v>0.83329999999999993</v>
+        <v>0.66670000000000007</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -866,25 +866,25 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>0.83329999999999993</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -910,25 +910,25 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0.83329999999999993</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -963,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2">
-        <v>0.83329999999999993</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>0.83329999999999993</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2">
-        <v>0.83329999999999993</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2">
-        <v>0.83329999999999993</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2">
-        <v>0.83329999999999993</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>0.33329999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>0.66670000000000007</v>
+        <v>0.83329999999999993</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>0.33329999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>0.66670000000000007</v>
+        <v>0.83329999999999993</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>0.33329999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2">
-        <v>0.66670000000000007</v>
+        <v>0.83329999999999993</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1306,19 +1306,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.16669999999999999</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1336,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1350,19 +1350,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.16669999999999999</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="K19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1403,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>0.5</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>0.5</v>
+        <v>0.83329999999999993</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1438,37 +1438,37 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.83329999999999993</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
         <v>17</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>15</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1491,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>0.5</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2">
-        <v>0.5</v>
+        <v>0.83329999999999993</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1535,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="2">
-        <v>0.5</v>
+        <v>0.66670000000000007</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1570,19 +1570,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1614,19 +1614,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -1644,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1702,25 +1702,25 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2">
-        <v>0.66670000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1746,25 +1746,25 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2">
-        <v>0.16669999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2">
-        <v>0.66670000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1799,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2">
-        <v>0.66670000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="K29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1849,10 +1849,10 @@
         <v>0.5</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1887,16 +1887,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2">
-        <v>0.5</v>
+        <v>0.66670000000000007</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" s="2">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1905,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -1922,25 +1922,25 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
         <v>0.5</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -1966,9 +1966,115 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N32">
-    <sortCondition descending="1" ref="K1:K32"/>
+    <sortCondition descending="1" ref="B1:B32"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1798212C-91A4-4C8F-8436-055A7961B623}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D32">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BBC9470D-AA71-44E4-911C-D5A39E986436}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F32">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C658E7C0-622C-4280-9427-391F97D2479E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1E71C606-129C-4A05-AC8B-B85D152E69D5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1798212C-91A4-4C8F-8436-055A7961B623}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BBC9470D-AA71-44E4-911C-D5A39E986436}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C658E7C0-622C-4280-9427-391F97D2479E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1E71C606-129C-4A05-AC8B-B85D152E69D5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K2:K32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>